--- a/pred_ohlcv/54_21/2019-10-22 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>434569.3299794932</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>434569.3299794932</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>459418.5586794932</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>337187.1505794932</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2560323.397553848</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2311472.397553848</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2333470.540453848</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2333470.540453848</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2220991.611153848</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2145394.523953848</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1807383.043753847</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1807383.043753847</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1714987.435153848</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1875300.873253847</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1875300.873253847</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1833271.965753848</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1833394.558253848</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1748366.951053848</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1784670.508353848</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1726709.229753847</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1726709.229753847</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1532909.768653848</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1532909.768653848</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1603266.579353848</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1562303.004410179</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>524654.0248359062</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>524746.0248359062</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>289934.5644359062</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>328055.8904359062</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>224328.4625359062</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>224328.4625359062</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>236734.4625359062</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>231612.4625359062</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>283645.4625359062</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>715084.6996359063</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>705436.7399359063</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>707930.2301359063</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>827456.7399359063</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-45812.31714867071</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-71786.34304867071</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>24819.15695132929</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-16585.6948486707</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-11366.7534486707</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>40476.77525132929</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>85432.5341513293</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>83113.57425132929</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>184338.6471513293</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-2168204.284479193</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-2083536.515479193</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-2117798.515479193</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-2117798.515479193</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-2013434.450579193</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-2013434.450579193</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-2013434.450579193</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-2013434.450579193</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-2013434.450579193</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-2048043.294179193</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-1997836.259479193</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-1997836.259479193</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-22 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>434569.3299794932</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>434569.3299794932</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>459418.5586794932</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>337187.1505794932</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2356452.397553848</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2089984.181853848</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2145394.523953848</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2259124.539853848</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1807383.043753847</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1807383.043753847</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1714987.435153848</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1875300.873253847</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1875300.873253847</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1833271.965753848</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1748366.951053848</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1784670.508353848</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1726709.229753847</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1726709.229753847</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1532909.768653848</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-45812.31714867071</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-71786.34304867071</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>24819.15695132929</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-16585.6948486707</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-11366.7534486707</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>40476.77525132929</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>85432.5341513293</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>83113.57425132929</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>184338.6471513293</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-2036088.280579193</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-2036088.280579193</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-2168204.284479193</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
